--- a/xlsx/审计_intext.xlsx
+++ b/xlsx/审计_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>會計學</t>
+    <t>会计学</t>
   </si>
   <si>
     <t>政策_政策_管理_审计</t>
@@ -35,31 +35,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>財務會計</t>
+    <t>财务会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>管理會計</t>
+    <t>管理会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>會計師</t>
+    <t>会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E6%9C%9F%E9%96%93</t>
   </si>
   <si>
-    <t>會計期間</t>
+    <t>会计期间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E7%A7%91%E7%9B%AE</t>
   </si>
   <si>
-    <t>會計科目</t>
+    <t>会计科目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%A1%E6%96%B9%E6%B3%95</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E8%B2%AC%E7%99%BC%E7%94%9F%E5%88%B6%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>權責發生制原則</t>
+    <t>权责发生制原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%BF%E8%A8%98</t>
   </si>
   <si>
-    <t>簿記</t>
+    <t>簿记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%BC%8F%E7%B0%BF%E8%AE%B0</t>
@@ -89,43 +89,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%80%B2%E5%85%88%E5%87%BA%E5%92%8C%E5%BE%8C%E9%80%B2%E5%85%88%E5%87%BA%E6%9C%83%E8%A8%88%E6%B3%95</t>
   </si>
   <si>
-    <t>先進先出和後進先出會計法</t>
+    <t>先进先出和后进先出会计法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%85%AC%E8%AA%8D%E6%9C%83%E8%A8%88%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>一般公認會計原則</t>
+    <t>一般公认会计原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A1%E5%8B%99%E5%A0%B1%E5%91%8A%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>國際財務報告準則</t>
+    <t>国际财务报告准则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%A8%88%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>國際會計準則</t>
+    <t>国际会计准则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E6%89%A3%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>折扣種類</t>
+    <t>折扣种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E8%88%8A</t>
   </si>
   <si>
-    <t>折舊</t>
+    <t>折旧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E8%AD%BD</t>
   </si>
   <si>
-    <t>商譽</t>
+    <t>商誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%88%90%E6%9C%AC</t>
@@ -137,49 +137,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%A8%98</t>
   </si>
   <si>
-    <t>日記</t>
+    <t>日记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E7%AE%97</t>
   </si>
   <si>
-    <t>試算</t>
+    <t>试算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%9C%AC%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>成本會計</t>
+    <t>成本会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>政府會計</t>
+    <t>政府会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%A0%B1%E8%A1%A8</t>
   </si>
   <si>
-    <t>財務報表</t>
+    <t>财务报表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E8%B2%A0%E5%82%B5%E8%A1%A8</t>
   </si>
   <si>
-    <t>資產負債表</t>
+    <t>资产负债表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E9%87%91%E6%B5%81%E9%87%8F%E8%A1%A8</t>
   </si>
   <si>
-    <t>現金流量表</t>
+    <t>现金流量表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E8%A1%A8</t>
   </si>
   <si>
-    <t>利潤表</t>
+    <t>利润表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/XBRL</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E5%B8%B3%E6%86%91%E8%AD%89</t>
   </si>
   <si>
-    <t>記帳憑證</t>
+    <t>记帐凭证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%8C%84</t>
   </si>
   <si>
-    <t>分錄</t>
+    <t>分录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%B8%B3</t>
   </si>
   <si>
-    <t>過帳</t>
+    <t>过帐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E8%AE%A1%E6%8A%A5%E5%91%8A</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%AF%A9%E8%A8%88</t>
   </si>
   <si>
-    <t>財務審計</t>
+    <t>财务审计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%AF%A9%E8%A8%88%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>國際審計準則</t>
+    <t>国际审计准则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%8F%AD%E6%96%AF-%E5%A5%A5%E5%85%8B%E6%96%AF%E5%88%A9%E6%B3%95%E6%A1%88</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%A8%B1%E5%85%AC%E8%AA%8D%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>特許公認會計師</t>
+    <t>特许公认会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%B3%A8%E5%86%8C%E4%BC%9A%E8%AE%A1%E5%B8%88%E5%8D%8F%E4%BC%9A</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>英國會計師</t>
+    <t>英国会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BC%9A%E8%AE%A1</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E5%AF%A9%E8%A8%88</t>
   </si>
   <si>
-    <t>資訊科技審計</t>
+    <t>资讯科技审计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%A1%E5%B8%88%E4%BA%8B%E5%8A%A1%E6%89%80</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%9C%83%E8%A8%88%E5%B8%AB%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>香港會計師公會</t>
+    <t>香港会计师公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B3%A8%E5%86%8C%E4%BC%9A%E8%AE%A1%E5%B8%88%E5%8D%8F%E4%BC%9A</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>證券</t>
+    <t>证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%A8%BD%E6%A0%B8%E8%BC%94%E5%8A%A9%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>電腦稽核輔助技術</t>
+    <t>电脑稽核辅助技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E8%AE%A1%E9%A3%8E%E6%9A%B4</t>
